--- a/matching and patching/4_stenosis/5_Compare/TB_G_C comparsion.xlsx
+++ b/matching and patching/4_stenosis/5_Compare/TB_G_C comparsion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\PhD\matching and patching\4_stenosis\5_Compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A907B3-3CDB-41E2-959C-37A5EEA9DEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB1E02A-A96D-4F38-B3B4-9C942F59CC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="855" windowWidth="31455" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="645" windowWidth="31455" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <r>
       <t>err</t>
@@ -358,6 +358,69 @@
                 <c:pt idx="9">
                   <c:v>0.32751400000000003</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32283600000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31645299999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31475900000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.31238199999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.30645099999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30380499999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.29893599999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.29595700000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.29394799999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.29113</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.28865200000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.28717500000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.28348299999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.28134300000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.27940599999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.27721000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27868599999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27583000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.274316</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.27305299999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.271646</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -544,6 +607,69 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-5.86647E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.3922699999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.1759300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.9750099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.8956E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.86411E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.6605599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.6900699999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.57505E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.4246099999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.3679500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.3095399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.2136100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.2704100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.2433899999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4.2135300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4.2197100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.2022299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.3014299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.2951700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.2360099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.25298E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -960,67 +1086,67 @@
                   <c:v>7.6889999999999459E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32751400000000003</c:v>
+                  <c:v>4.6780000000000155E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>6.3830000000000275E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.6939999999999733E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.377000000000018E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>5.9310000000000196E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2.6459999999999817E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>4.8690000000000122E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2.9789999999999539E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2.0090000000000385E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2.8179999999999872E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2.4779999999999802E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1.4770000000000061E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>3.6920000000000286E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>2.1399999999999753E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1.937000000000022E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>2.1959999999999757E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>1.4759999999999773E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>2.8559999999999697E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1.5140000000000153E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>1.2630000000000141E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>1.4069999999999916E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,67 +1230,67 @@
                   <c:v>3.0834E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.86647E-2</c:v>
+                  <c:v>4.7420000000000032E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.1633999999999959E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2.0092000000000027E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>7.9409999999999897E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3.148999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2.0355000000000026E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2.9509999999999953E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1.1501999999999971E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1.504400000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>5.665999999999935E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>5.8410000000000406E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>9.5929999999999627E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>5.6799999999999906E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>2.7020000000000516E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>2.9859999999999609E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>6.1800000000000743E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>1.7480000000000273E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>9.9199999999999983E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>6.2599999999995992E-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>5.9160000000000462E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>1.6970000000000179E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2826,7 +2952,7 @@
   <dimension ref="A1:AL68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2838,7 +2964,7 @@
     <col min="6" max="6" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2855,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2866,7 +2992,7 @@
         <v>-0.30646499999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2884,14 +3010,8 @@
         <f>ABS(C3-C2)</f>
         <v>0.17219099999999998</v>
       </c>
-      <c r="V3">
-        <v>0.2793500000000001</v>
-      </c>
-      <c r="W3">
-        <v>9.1711999999999988E-2</v>
-      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2909,14 +3029,8 @@
         <f t="shared" ref="F4:F32" si="1">ABS(C4-C3)</f>
         <v>2.4494000000000002E-2</v>
       </c>
-      <c r="V4">
-        <v>0.20723999999999998</v>
-      </c>
-      <c r="W4">
-        <v>6.6508000000000012E-2</v>
-      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2934,14 +3048,8 @@
         <f t="shared" si="1"/>
         <v>1.46984E-2</v>
       </c>
-      <c r="V5">
-        <v>0.12906200000000001</v>
-      </c>
-      <c r="W5">
-        <v>4.3679999999999983E-2</v>
-      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2959,14 +3067,8 @@
         <f t="shared" si="1"/>
         <v>1.0467799999999999E-2</v>
       </c>
-      <c r="V6">
-        <v>8.5497999999999963E-2</v>
-      </c>
-      <c r="W6">
-        <v>2.0704400000000012E-2</v>
-      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2984,14 +3086,8 @@
         <f>ABS(C7-C6)</f>
         <v>7.4846000000000079E-3</v>
       </c>
-      <c r="V7">
-        <v>4.9235000000000029E-2</v>
-      </c>
-      <c r="W7">
-        <v>7.5411999999999979E-3</v>
-      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3009,14 +3105,8 @@
         <f>ABS(C8-C7)</f>
         <v>5.3185999999999928E-3</v>
       </c>
-      <c r="V8">
-        <v>3.3312000000000008E-2</v>
-      </c>
-      <c r="W8">
-        <v>3.4473999999999894E-3</v>
-      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3034,14 +3124,8 @@
         <f t="shared" si="1"/>
         <v>6.6423000000000038E-3</v>
       </c>
-      <c r="V9">
-        <v>2.380199999999999E-2</v>
-      </c>
-      <c r="W9">
-        <v>4.759300000000008E-3</v>
-      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3059,14 +3143,8 @@
         <f t="shared" si="1"/>
         <v>3.4201999999999982E-3</v>
       </c>
-      <c r="V10">
-        <v>1.5658000000000005E-2</v>
-      </c>
-      <c r="W10">
-        <v>3.3036999999999928E-3</v>
-      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3084,975 +3162,428 @@
         <f t="shared" si="1"/>
         <v>3.0834E-3</v>
       </c>
-      <c r="V11">
-        <v>1.4023000000000008E-2</v>
-      </c>
-      <c r="W11">
-        <v>5.7411000000000059E-3</v>
-      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1">
+        <v>0.32283600000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-5.3922699999999997E-2</v>
+      </c>
       <c r="E12">
         <f>ABS(B12-B11)</f>
-        <v>0.32751400000000003</v>
+        <v>4.6780000000000155E-3</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>5.86647E-2</v>
-      </c>
-      <c r="V12">
-        <v>1.2102999999999975E-2</v>
-      </c>
-      <c r="W12">
-        <v>4.6898999999999968E-3</v>
+        <v>4.7420000000000032E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1">
+        <v>0.31645299999999998</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-5.1759300000000001E-2</v>
+      </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.3830000000000275E-3</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>1.1508000000000018E-2</v>
-      </c>
-      <c r="W13">
-        <v>7.5930000000000442E-4</v>
+        <v>2.1633999999999959E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1">
+        <v>0.31475900000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-4.9750099999999998E-2</v>
+      </c>
       <c r="E14">
         <f>ABS(B14-B13)</f>
-        <v>0</v>
+        <v>1.6939999999999733E-3</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>9.9819999999999909E-3</v>
-      </c>
-      <c r="W14">
-        <v>1.5562000000000006E-3</v>
+        <v>2.0092000000000027E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1">
+        <v>0.31238199999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-4.8956E-2</v>
+      </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.377000000000018E-3</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>8.992E-3</v>
-      </c>
-      <c r="W15">
-        <v>3.5139999999999963E-3</v>
+        <v>7.9409999999999897E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
+      <c r="B16" s="1">
+        <v>0.30645099999999997</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-4.86411E-2</v>
+      </c>
       <c r="E16">
         <f>ABS(B16-B15)</f>
-        <v>0</v>
+        <v>5.9310000000000196E-3</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>8.0790000000000028E-3</v>
-      </c>
-      <c r="W16">
-        <v>2.4300000000000016E-4</v>
+        <v>3.148999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="1">
+        <v>0.30380499999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-4.6605599999999997E-2</v>
+      </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.6459999999999817E-3</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>5.5359999999999854E-3</v>
-      </c>
-      <c r="W17">
-        <v>1.4554999999999985E-3</v>
+        <v>2.0355000000000026E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="1">
+        <v>0.29893599999999998</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-4.6900699999999997E-2</v>
+      </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8690000000000122E-3</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>4.3500000000000205E-3</v>
-      </c>
-      <c r="W18">
-        <v>2.3478000000000041E-3</v>
+        <v>2.9509999999999953E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1">
+        <v>0.29595700000000003</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-4.57505E-2</v>
+      </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.9789999999999539E-3</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>4.1349999999999998E-3</v>
-      </c>
-      <c r="W19">
-        <v>2.191499999999999E-3</v>
+        <v>1.1501999999999971E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="1">
+        <v>0.29394799999999999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-4.4246099999999997E-2</v>
+      </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0090000000000385E-3</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>3.7289999999999823E-3</v>
-      </c>
-      <c r="W20">
-        <v>2.5393000000000013E-3</v>
+        <v>1.504400000000003E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
+      <c r="B21" s="1">
+        <v>0.29113</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-4.3679500000000003E-2</v>
+      </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.8179999999999872E-3</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>3.6430000000000073E-3</v>
-      </c>
-      <c r="W21">
-        <v>2.1037E-3</v>
+        <v>5.665999999999935E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="1">
+        <v>0.28865200000000002</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-4.3095399999999999E-2</v>
+      </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4779999999999802E-3</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>3.3140000000000114E-3</v>
-      </c>
-      <c r="W22">
-        <v>1.3231000000000007E-3</v>
+        <v>5.8410000000000406E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="1">
+        <v>0.28717500000000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-4.2136100000000003E-2</v>
+      </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4770000000000061E-3</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>2.8279999999999972E-3</v>
-      </c>
-      <c r="W23">
-        <v>1.6942999999999958E-3</v>
+        <v>9.5929999999999627E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="1">
+        <v>0.28348299999999998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-4.2704100000000002E-2</v>
+      </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.6920000000000286E-3</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>3.1299999999999939E-3</v>
-      </c>
-      <c r="W24">
-        <v>4.0010000000000046E-4</v>
+        <v>5.6799999999999906E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="1">
+        <v>0.28134300000000001</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-4.2433899999999997E-2</v>
+      </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1399999999999753E-3</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>2.0030000000000048E-3</v>
-      </c>
-      <c r="W25">
-        <v>2.0130000000000009E-3</v>
+        <v>2.7020000000000516E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="1">
+        <v>0.27940599999999999</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-4.2135300000000001E-2</v>
+      </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.937000000000022E-3</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>2.3839999999999972E-3</v>
-      </c>
-      <c r="W26">
-        <v>6.3790000000000374E-4</v>
+        <v>2.9859999999999609E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="1">
+        <v>0.27721000000000001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-4.2197100000000001E-2</v>
+      </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1959999999999757E-3</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>2.3229999999999917E-3</v>
-      </c>
-      <c r="W27">
-        <v>1.7940000000000317E-4</v>
+        <v>6.1800000000000743E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
+      <c r="B28" s="1">
+        <v>0.27868599999999999</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-4.2022299999999999E-2</v>
+      </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4759999999999773E-3</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>1.6390000000000016E-3</v>
-      </c>
-      <c r="W28">
-        <v>9.8079999999999695E-4</v>
+        <v>1.7480000000000273E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="1">
+        <v>0.27583000000000002</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-4.3014299999999998E-2</v>
+      </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.8559999999999697E-3</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>1.5280000000000016E-3</v>
-      </c>
-      <c r="W29">
-        <v>6.6690000000000499E-4</v>
+        <v>9.9199999999999983E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="1">
+        <v>0.274316</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-4.2951700000000002E-2</v>
+      </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5140000000000153E-3</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>1.7310000000000103E-3</v>
-      </c>
-      <c r="W30">
-        <v>2.5603999999999974E-3</v>
+        <v>6.2599999999995992E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="1">
+        <v>0.27305299999999999</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-4.2360099999999998E-2</v>
+      </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2630000000000141E-3</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>6.0999999999999943E-4</v>
-      </c>
-      <c r="W31">
-        <v>1.3492000000000018E-3</v>
+        <v>5.9160000000000462E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="B32" s="1">
+        <v>0.271646</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-4.25298E-2</v>
+      </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4069999999999916E-3</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>1.2000000000012001E-5</v>
-      </c>
-      <c r="W32">
-        <v>1.8012999999999987E-3</v>
+        <v>1.6970000000000179E-4</v>
       </c>
     </row>
-    <row r="35" spans="22:38" x14ac:dyDescent="0.2">
-      <c r="W35">
-        <v>9.1711999999999988E-2</v>
-      </c>
-      <c r="X35">
-        <v>6.6508000000000012E-2</v>
-      </c>
-      <c r="Y35">
-        <v>4.3679999999999983E-2</v>
-      </c>
-      <c r="Z35">
-        <v>2.0704400000000012E-2</v>
-      </c>
-      <c r="AA35">
-        <v>7.5411999999999979E-3</v>
-      </c>
-      <c r="AB35">
-        <v>3.4473999999999894E-3</v>
-      </c>
-      <c r="AC35">
-        <v>4.759300000000008E-3</v>
-      </c>
-      <c r="AD35">
-        <v>3.3036999999999928E-3</v>
-      </c>
-      <c r="AE35">
-        <v>5.7411000000000059E-3</v>
-      </c>
-      <c r="AF35">
-        <v>4.6898999999999968E-3</v>
-      </c>
-      <c r="AG35">
-        <v>7.5930000000000442E-4</v>
-      </c>
-      <c r="AH35">
-        <v>1.5562000000000006E-3</v>
-      </c>
-      <c r="AI35">
-        <v>3.5139999999999963E-3</v>
-      </c>
-      <c r="AJ35">
-        <v>2.4300000000000016E-4</v>
-      </c>
-      <c r="AK35">
-        <v>1.4554999999999985E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="22:38" x14ac:dyDescent="0.2">
-      <c r="W36">
-        <v>5.5359999999999854E-3</v>
-      </c>
-      <c r="X36">
-        <v>4.3500000000000205E-3</v>
-      </c>
-      <c r="Y36">
-        <v>4.1349999999999998E-3</v>
-      </c>
-      <c r="Z36">
-        <v>3.7289999999999823E-3</v>
-      </c>
-      <c r="AA36">
-        <v>3.6430000000000073E-3</v>
-      </c>
-      <c r="AB36">
-        <v>3.3140000000000114E-3</v>
-      </c>
-      <c r="AC36">
-        <v>2.8279999999999972E-3</v>
-      </c>
-      <c r="AD36">
-        <v>3.1299999999999939E-3</v>
-      </c>
-      <c r="AE36">
-        <v>2.0030000000000048E-3</v>
-      </c>
-      <c r="AF36">
-        <v>2.3839999999999972E-3</v>
-      </c>
-      <c r="AG36">
-        <v>2.3229999999999917E-3</v>
-      </c>
-      <c r="AH36">
-        <v>1.6390000000000016E-3</v>
-      </c>
-      <c r="AI36">
-        <v>1.5280000000000016E-3</v>
-      </c>
-      <c r="AJ36">
-        <v>1.7310000000000103E-3</v>
-      </c>
-      <c r="AK36">
-        <v>6.0999999999999943E-4</v>
-      </c>
+    <row r="36" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL36">
         <v>1.2000000000012001E-5</v>
       </c>
     </row>
-    <row r="37" spans="22:38" x14ac:dyDescent="0.2">
-      <c r="W37">
-        <v>2.3478000000000041E-3</v>
-      </c>
-      <c r="X37">
-        <v>2.191499999999999E-3</v>
-      </c>
-      <c r="Y37">
-        <v>2.5393000000000013E-3</v>
-      </c>
-      <c r="Z37">
-        <v>2.1037E-3</v>
-      </c>
-      <c r="AA37">
-        <v>1.3231000000000007E-3</v>
-      </c>
-      <c r="AB37">
-        <v>1.6942999999999958E-3</v>
-      </c>
-      <c r="AC37">
-        <v>4.0010000000000046E-4</v>
-      </c>
-      <c r="AD37">
-        <v>2.0130000000000009E-3</v>
-      </c>
-      <c r="AE37">
-        <v>6.3790000000000374E-4</v>
-      </c>
-      <c r="AF37">
-        <v>1.7940000000000317E-4</v>
-      </c>
-      <c r="AG37">
-        <v>9.8079999999999695E-4</v>
-      </c>
-      <c r="AH37">
-        <v>6.6690000000000499E-4</v>
-      </c>
-      <c r="AI37">
-        <v>2.5603999999999974E-3</v>
-      </c>
-      <c r="AJ37">
-        <v>1.3492000000000018E-3</v>
-      </c>
-      <c r="AK37">
-        <v>1.8012999999999987E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="22:38" x14ac:dyDescent="0.2">
-      <c r="V41">
-        <v>4.3500000000000205E-3</v>
-      </c>
-      <c r="W41">
-        <v>4.1349999999999998E-3</v>
-      </c>
-      <c r="X41">
-        <v>3.7289999999999823E-3</v>
-      </c>
-      <c r="Y41">
-        <v>3.6430000000000073E-3</v>
-      </c>
-      <c r="Z41">
-        <v>3.3140000000000114E-3</v>
-      </c>
-      <c r="AA41">
-        <v>2.8279999999999972E-3</v>
-      </c>
-      <c r="AB41">
-        <v>3.1299999999999939E-3</v>
-      </c>
-      <c r="AC41">
-        <v>2.0030000000000048E-3</v>
-      </c>
-      <c r="AD41">
-        <v>2.3839999999999972E-3</v>
-      </c>
-      <c r="AE41">
-        <v>2.3229999999999917E-3</v>
-      </c>
-      <c r="AF41">
-        <v>1.6390000000000016E-3</v>
-      </c>
-      <c r="AG41">
-        <v>1.5280000000000016E-3</v>
-      </c>
-      <c r="AH41">
-        <v>1.7310000000000103E-3</v>
-      </c>
-      <c r="AI41">
-        <v>6.0999999999999943E-4</v>
-      </c>
-      <c r="AJ41">
-        <v>1.2000000000012001E-5</v>
-      </c>
-    </row>
-    <row r="42" spans="22:38" x14ac:dyDescent="0.2">
-      <c r="V42">
-        <v>0.2793500000000001</v>
-      </c>
-      <c r="W42">
-        <v>0.20723999999999998</v>
-      </c>
-      <c r="X42">
-        <v>0.12906200000000001</v>
-      </c>
-      <c r="Y42">
-        <v>8.5497999999999963E-2</v>
-      </c>
-      <c r="Z42">
-        <v>4.9235000000000029E-2</v>
-      </c>
-      <c r="AA42">
-        <v>3.3312000000000008E-2</v>
-      </c>
-      <c r="AB42">
-        <v>2.380199999999999E-2</v>
-      </c>
-      <c r="AC42">
-        <v>1.5658000000000005E-2</v>
-      </c>
-      <c r="AD42">
-        <v>1.4023000000000008E-2</v>
-      </c>
-      <c r="AE42">
-        <v>1.2102999999999975E-2</v>
-      </c>
-      <c r="AF42">
-        <v>1.1508000000000018E-2</v>
-      </c>
-      <c r="AG42">
-        <v>9.9819999999999909E-3</v>
-      </c>
-      <c r="AH42">
-        <v>8.992E-3</v>
-      </c>
-      <c r="AI42">
-        <v>8.0790000000000028E-3</v>
-      </c>
-      <c r="AJ42">
-        <v>5.5359999999999854E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="7:38" x14ac:dyDescent="0.2">
-      <c r="H57">
-        <v>0.2793500000000001</v>
-      </c>
-      <c r="I57">
-        <v>0.20723999999999998</v>
-      </c>
-      <c r="J57">
-        <v>0.12906200000000001</v>
-      </c>
-      <c r="K57">
-        <v>8.5497999999999963E-2</v>
-      </c>
-      <c r="L57">
-        <v>4.9235000000000029E-2</v>
-      </c>
-      <c r="M57">
-        <v>3.3312000000000008E-2</v>
-      </c>
-      <c r="N57">
-        <v>2.380199999999999E-2</v>
-      </c>
-      <c r="O57">
-        <v>1.5658000000000005E-2</v>
-      </c>
-      <c r="P57">
-        <v>1.4023000000000008E-2</v>
-      </c>
-      <c r="Q57">
-        <v>1.2102999999999975E-2</v>
-      </c>
-      <c r="R57">
-        <v>1.1508000000000018E-2</v>
-      </c>
-      <c r="S57">
-        <v>9.9819999999999909E-3</v>
-      </c>
-      <c r="T57">
-        <v>8.992E-3</v>
-      </c>
-      <c r="U57">
-        <v>8.0790000000000028E-3</v>
-      </c>
-      <c r="V57">
-        <v>5.5359999999999854E-3</v>
-      </c>
-      <c r="W57">
-        <v>4.3500000000000205E-3</v>
-      </c>
-      <c r="X57">
-        <v>4.1349999999999998E-3</v>
-      </c>
-      <c r="Y57">
-        <v>3.7289999999999823E-3</v>
-      </c>
-      <c r="Z57">
-        <v>3.6430000000000073E-3</v>
-      </c>
-      <c r="AA57">
-        <v>3.3140000000000114E-3</v>
-      </c>
-      <c r="AB57">
-        <v>2.8279999999999972E-3</v>
-      </c>
-      <c r="AC57">
-        <v>3.1299999999999939E-3</v>
-      </c>
-      <c r="AD57">
-        <v>2.0030000000000048E-3</v>
-      </c>
-      <c r="AE57">
-        <v>2.3839999999999972E-3</v>
-      </c>
-      <c r="AF57">
-        <v>2.3229999999999917E-3</v>
-      </c>
-      <c r="AG57">
-        <v>1.6390000000000016E-3</v>
-      </c>
-      <c r="AH57">
-        <v>1.5280000000000016E-3</v>
-      </c>
-      <c r="AI57">
-        <v>1.7310000000000103E-3</v>
-      </c>
-      <c r="AJ57">
-        <v>6.0999999999999943E-4</v>
-      </c>
-      <c r="AK57">
-        <v>1.2000000000012001E-5</v>
-      </c>
-    </row>
-    <row r="58" spans="7:38" x14ac:dyDescent="0.2">
-      <c r="H58">
-        <v>9.1711999999999988E-2</v>
-      </c>
-      <c r="I58">
-        <v>6.6508000000000012E-2</v>
-      </c>
-      <c r="J58">
-        <v>4.3679999999999983E-2</v>
-      </c>
-      <c r="K58">
-        <v>2.0704400000000012E-2</v>
-      </c>
-      <c r="L58">
-        <v>7.5411999999999979E-3</v>
-      </c>
-      <c r="M58">
-        <v>3.4473999999999894E-3</v>
-      </c>
-      <c r="N58">
-        <v>4.759300000000008E-3</v>
-      </c>
-      <c r="O58">
-        <v>3.3036999999999928E-3</v>
-      </c>
-      <c r="P58">
-        <v>5.7411000000000059E-3</v>
-      </c>
-      <c r="Q58">
-        <v>4.6898999999999968E-3</v>
-      </c>
-      <c r="R58">
-        <v>7.5930000000000442E-4</v>
-      </c>
-      <c r="S58">
-        <v>1.5562000000000006E-3</v>
-      </c>
-      <c r="T58">
-        <v>3.5139999999999963E-3</v>
-      </c>
-      <c r="U58">
-        <v>2.4300000000000016E-4</v>
-      </c>
-      <c r="V58">
-        <v>1.4554999999999985E-3</v>
-      </c>
-      <c r="W58">
-        <v>2.3478000000000041E-3</v>
-      </c>
-      <c r="X58">
-        <v>2.191499999999999E-3</v>
-      </c>
-      <c r="Y58">
-        <v>2.5393000000000013E-3</v>
-      </c>
-      <c r="Z58">
-        <v>2.1037E-3</v>
-      </c>
-      <c r="AA58">
-        <v>1.3231000000000007E-3</v>
-      </c>
-      <c r="AB58">
-        <v>1.6942999999999958E-3</v>
-      </c>
-      <c r="AC58">
-        <v>4.0010000000000046E-4</v>
-      </c>
-      <c r="AD58">
-        <v>2.0130000000000009E-3</v>
-      </c>
-      <c r="AE58">
-        <v>6.3790000000000374E-4</v>
-      </c>
-      <c r="AF58">
-        <v>1.7940000000000317E-4</v>
-      </c>
-      <c r="AG58">
-        <v>9.8079999999999695E-4</v>
-      </c>
-      <c r="AH58">
-        <v>6.6690000000000499E-4</v>
-      </c>
-      <c r="AI58">
-        <v>2.5603999999999974E-3</v>
-      </c>
-      <c r="AJ58">
-        <v>1.3492000000000018E-3</v>
-      </c>
-      <c r="AK58">
-        <v>1.8012999999999987E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="7:38" x14ac:dyDescent="0.2">
-      <c r="G63" t="s">
-        <v>2</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <v>2</v>
-      </c>
-      <c r="K63">
-        <v>3</v>
-      </c>
-      <c r="L63">
-        <v>4</v>
-      </c>
-      <c r="M63">
-        <v>5</v>
-      </c>
-      <c r="N63">
-        <v>6</v>
-      </c>
-      <c r="O63">
-        <v>7</v>
-      </c>
-      <c r="P63">
-        <v>8</v>
-      </c>
-      <c r="Q63">
-        <v>9</v>
-      </c>
-      <c r="R63">
-        <v>10</v>
-      </c>
-      <c r="S63">
-        <v>11</v>
-      </c>
-      <c r="T63">
-        <v>12</v>
-      </c>
-      <c r="U63">
-        <v>13</v>
-      </c>
-      <c r="V63">
-        <v>14</v>
-      </c>
-      <c r="W63">
-        <v>15</v>
-      </c>
-    </row>
     <row r="64" spans="7:38" x14ac:dyDescent="0.2">
-      <c r="G64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H64" s="1">
-        <v>1.1331800000000001</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0.85382999999999998</v>
-      </c>
-      <c r="J64" s="1">
-        <v>0.64659</v>
-      </c>
-      <c r="K64" s="1">
-        <v>0.51752799999999999</v>
-      </c>
-      <c r="L64" s="1">
-        <v>0.43203000000000003</v>
-      </c>
-      <c r="M64" s="1">
-        <v>0.382795</v>
-      </c>
-      <c r="N64" s="1">
-        <v>0.34948299999999999</v>
-      </c>
-      <c r="O64" s="1">
-        <v>0.325681</v>
-      </c>
-      <c r="P64" s="1">
-        <v>0.31002299999999999</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="R64" s="1">
-        <v>0.28389700000000001</v>
-      </c>
-      <c r="S64" s="1">
-        <v>0.27238899999999999</v>
-      </c>
-      <c r="T64" s="1">
-        <v>0.262407</v>
-      </c>
-      <c r="U64" s="1">
-        <v>0.253415</v>
-      </c>
-      <c r="V64">
-        <v>0.245336</v>
-      </c>
-      <c r="W64" s="1">
-        <v>0.23980000000000001</v>
-      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
@@ -4068,57 +3599,22 @@
       <c r="AL64" s="1"/>
     </row>
     <row r="65" spans="7:38" x14ac:dyDescent="0.2">
-      <c r="G65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H65" s="1">
-        <v>-0.30646499999999999</v>
-      </c>
-      <c r="I65" s="1">
-        <v>-0.214753</v>
-      </c>
-      <c r="J65" s="1">
-        <v>-0.14824499999999999</v>
-      </c>
-      <c r="K65" s="1">
-        <v>-0.10456500000000001</v>
-      </c>
-      <c r="L65" s="1">
-        <v>-8.3860599999999993E-2</v>
-      </c>
-      <c r="M65" s="1">
-        <v>-7.6319399999999996E-2</v>
-      </c>
-      <c r="N65" s="1">
-        <v>-7.2872000000000006E-2</v>
-      </c>
-      <c r="O65" s="1">
-        <v>-6.8112699999999998E-2</v>
-      </c>
-      <c r="P65" s="1">
-        <v>-6.4809000000000005E-2</v>
-      </c>
-      <c r="Q65" s="1">
-        <v>-5.90679E-2</v>
-      </c>
-      <c r="R65" s="1">
-        <v>-5.4378000000000003E-2</v>
-      </c>
-      <c r="S65" s="1">
-        <v>-5.3618699999999998E-2</v>
-      </c>
-      <c r="T65" s="1">
-        <v>-5.2062499999999998E-2</v>
-      </c>
-      <c r="U65" s="1">
-        <v>-4.8548500000000001E-2</v>
-      </c>
-      <c r="V65">
-        <v>-4.8305500000000001E-2</v>
-      </c>
-      <c r="W65" s="1">
-        <v>-4.6850000000000003E-2</v>
-      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="W65" s="1"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
@@ -4133,155 +3629,37 @@
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
     </row>
-    <row r="66" spans="7:38" x14ac:dyDescent="0.2">
-      <c r="G66" t="s">
-        <v>2</v>
-      </c>
-      <c r="H66">
-        <v>16</v>
-      </c>
-      <c r="I66">
-        <v>17</v>
-      </c>
-      <c r="J66">
-        <v>18</v>
-      </c>
-      <c r="K66">
-        <v>19</v>
-      </c>
-      <c r="L66">
-        <v>20</v>
-      </c>
-      <c r="M66">
-        <v>21</v>
-      </c>
-      <c r="N66">
-        <v>22</v>
-      </c>
-      <c r="O66">
-        <v>23</v>
-      </c>
-      <c r="P66">
-        <v>24</v>
-      </c>
-      <c r="Q66">
-        <v>25</v>
-      </c>
-      <c r="R66">
-        <v>26</v>
-      </c>
-      <c r="S66">
-        <v>27</v>
-      </c>
-      <c r="T66">
-        <v>28</v>
-      </c>
-      <c r="U66">
-        <v>29</v>
-      </c>
-      <c r="V66">
-        <v>30</v>
-      </c>
-    </row>
     <row r="67" spans="7:38" x14ac:dyDescent="0.2">
-      <c r="G67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H67" s="1">
-        <v>0.23544999999999999</v>
-      </c>
-      <c r="I67" s="1">
-        <v>0.23131499999999999</v>
-      </c>
-      <c r="J67" s="1">
-        <v>0.22758600000000001</v>
-      </c>
-      <c r="K67">
-        <v>0.223943</v>
-      </c>
-      <c r="L67" s="1">
-        <v>0.22062899999999999</v>
-      </c>
-      <c r="M67" s="1">
-        <v>0.21780099999999999</v>
-      </c>
-      <c r="N67" s="1">
-        <v>0.214671</v>
-      </c>
-      <c r="O67" s="1">
-        <v>0.212668</v>
-      </c>
-      <c r="P67" s="1">
-        <v>0.210284</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>0.20796100000000001</v>
-      </c>
-      <c r="R67">
-        <v>0.20632200000000001</v>
-      </c>
-      <c r="S67" s="1">
-        <v>0.204794</v>
-      </c>
-      <c r="T67" s="1">
-        <v>0.20306299999999999</v>
-      </c>
-      <c r="U67" s="1">
-        <v>0.20367299999999999</v>
-      </c>
-      <c r="V67" s="1">
-        <v>0.203685</v>
-      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
     </row>
     <row r="68" spans="7:38" x14ac:dyDescent="0.2">
-      <c r="G68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H68" s="1">
-        <v>-4.4502199999999999E-2</v>
-      </c>
-      <c r="I68" s="1">
-        <v>-4.23107E-2</v>
-      </c>
-      <c r="J68" s="1">
-        <v>-3.9771399999999998E-2</v>
-      </c>
-      <c r="K68">
-        <v>-3.7667699999999998E-2</v>
-      </c>
-      <c r="L68" s="1">
-        <v>-3.6344599999999998E-2</v>
-      </c>
-      <c r="M68" s="1">
-        <v>-3.4650300000000002E-2</v>
-      </c>
-      <c r="N68" s="1">
-        <v>-3.4250200000000001E-2</v>
-      </c>
-      <c r="O68" s="1">
-        <v>-3.2237200000000001E-2</v>
-      </c>
-      <c r="P68" s="1">
-        <v>-3.1599299999999997E-2</v>
-      </c>
-      <c r="Q68" s="1">
-        <v>-3.17787E-2</v>
-      </c>
-      <c r="R68">
-        <v>-3.2759499999999997E-2</v>
-      </c>
-      <c r="S68" s="1">
-        <v>-3.3426400000000002E-2</v>
-      </c>
-      <c r="T68" s="1">
-        <v>-3.5986799999999999E-2</v>
-      </c>
-      <c r="U68" s="1">
-        <v>-3.7336000000000001E-2</v>
-      </c>
-      <c r="V68" s="1">
-        <v>-3.91373E-2</v>
-      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
